--- a/Documents/Technical/Slowness/ApplicationPerformance.xlsx
+++ b/Documents/Technical/Slowness/ApplicationPerformance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>GetMyReviewPendingPrinciaplInvestigator</t>
   </si>
@@ -226,6 +226,21 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Service unavialble - unable to login.</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,6 +327,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S26"/>
+  <dimension ref="A3:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,9 +693,10 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -687,7 +704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -699,7 +716,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -711,7 +728,7 @@
         <v>1570800</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -723,7 +740,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>64</v>
@@ -779,8 +796,11 @@
       <c r="S10" s="14">
         <v>43558.548611111109</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="15">
+        <v>43635.411805555559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>65</v>
@@ -802,7 +822,7 @@
         <v>43587.675000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -850,8 +870,11 @@
       <c r="S12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -898,8 +921,11 @@
       <c r="S13" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -947,8 +973,11 @@
       <c r="S14" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -995,8 +1024,11 @@
       <c r="S15" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="E16" s="3"/>
@@ -1012,6 +1044,9 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
+      <c r="T16" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
